--- a/TOR130 Data/100x100trail/TOR130_2022.xlsx
+++ b/TOR130 Data/100x100trail/TOR130_2022.xlsx
@@ -1216,7 +1216,7 @@
     <t>Paris Giovanni</t>
   </si>
   <si>
-    <t>Piquerez  Fabien</t>
+    <t>Piquerez Fabien</t>
   </si>
   <si>
     <t>Vulliamy Adrien</t>
@@ -1381,7 +1381,7 @@
     <t>Onelia Alberto</t>
   </si>
   <si>
-    <t>Fish  Gareth 0Hl</t>
+    <t>Fish Gareth 0Hl</t>
   </si>
   <si>
     <t>Pederzoli Alessandro</t>
@@ -1492,7 +1492,7 @@
     <t>Borgesio Iva</t>
   </si>
   <si>
-    <t>D Angelo Deva</t>
+    <t>DAngelo Deva</t>
   </si>
   <si>
     <t>Pittet Davide</t>
@@ -1678,7 +1678,7 @@
     <t>Mereu Fabrice</t>
   </si>
   <si>
-    <t>Giordanengo  Lucia</t>
+    <t>Giordanengo Lucia</t>
   </si>
   <si>
     <t>Wysocki Loic</t>
@@ -1723,13 +1723,13 @@
     <t>Massimi Francesco</t>
   </si>
   <si>
-    <t>Palummieri  Giulio</t>
+    <t>Palummieri Giulio</t>
   </si>
   <si>
     <t>Garzonio Pietro</t>
   </si>
   <si>
-    <t>Macciocchi  Massimiliano</t>
+    <t>Macciocchi Massimiliano</t>
   </si>
   <si>
     <t>Ratto Francesco</t>
@@ -1783,7 +1783,7 @@
     <t>Gobbi Pier Paolo</t>
   </si>
   <si>
-    <t>Labisse  Sebastien</t>
+    <t>Labisse Sebastien</t>
   </si>
   <si>
     <t>Joye Damien</t>
@@ -1795,7 +1795,7 @@
     <t>Oggier Nicolas</t>
   </si>
   <si>
-    <t>Lamberti  Carmine</t>
+    <t>Lamberti Carmine</t>
   </si>
   <si>
     <t>Frutaz Manuele</t>
@@ -1825,7 +1825,7 @@
     <t>Forestiero Alessandro</t>
   </si>
   <si>
-    <t>Zanetti  Walter</t>
+    <t>Zanetti Walter</t>
   </si>
   <si>
     <t>Romagnoni Matteo</t>
@@ -1963,7 +1963,7 @@
     <t>Parolin Alberto</t>
   </si>
   <si>
-    <t>Roux  Gilles</t>
+    <t>Roux Gilles</t>
   </si>
   <si>
     <t>Imbert Florian</t>
@@ -1999,7 +1999,7 @@
     <t>Danne Alessia</t>
   </si>
   <si>
-    <t>Di Cristo  Elena</t>
+    <t>Di Cristo Elena</t>
   </si>
   <si>
     <t>Vanhaelewyck Lars</t>
@@ -2053,7 +2053,7 @@
     <t>Ventura Giuseppe</t>
   </si>
   <si>
-    <t>Pelloux  Christian</t>
+    <t>Pelloux Christian</t>
   </si>
   <si>
     <t>Faure Ragani Alessandro</t>
@@ -2101,7 +2101,7 @@
     <t>Boemio Giuseppe</t>
   </si>
   <si>
-    <t>Oldani  Cristiano</t>
+    <t>Oldani Cristiano</t>
   </si>
   <si>
     <t>Croci Danilo</t>
@@ -2176,7 +2176,7 @@
     <t>Simeoni Massimiliano</t>
   </si>
   <si>
-    <t>Mizushima  Hiroshi</t>
+    <t>Mizushima Hiroshi</t>
   </si>
   <si>
     <t>Konoshita Tatsuya</t>
